--- a/data/scheduling_real/schedule/8.xlsx
+++ b/data/scheduling_real/schedule/8.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/scheduling_real/schedule/8.xlsx
+++ b/data/scheduling_real/schedule/8.xlsx
@@ -1193,8 +1193,12 @@
       <c r="C20" t="n">
         <v>263</v>
       </c>
-      <c r="D20" t="s"/>
-      <c r="E20" t="s"/>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
       <c r="F20" t="n">
         <v>0.5321099758148193</v>
       </c>
@@ -1210,9 +1214,15 @@
       <c r="J20" t="n">
         <v>18</v>
       </c>
-      <c r="K20" t="s"/>
-      <c r="L20" t="s"/>
-      <c r="M20" t="s"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="n">
@@ -1224,8 +1234,12 @@
       <c r="C21" t="n">
         <v>65</v>
       </c>
-      <c r="D21" t="s"/>
-      <c r="E21" t="s"/>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
       <c r="F21" t="n">
         <v>0.8738498687744141</v>
       </c>
@@ -1241,9 +1255,15 @@
       <c r="J21" t="n">
         <v>19</v>
       </c>
-      <c r="K21" t="s"/>
-      <c r="L21" t="s"/>
-      <c r="M21" t="s"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="n">
@@ -1255,8 +1275,12 @@
       <c r="C22" t="n">
         <v>61</v>
       </c>
-      <c r="D22" t="s"/>
-      <c r="E22" t="s"/>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
       <c r="F22" t="n">
         <v>0.8758289813995361</v>
       </c>
@@ -1272,9 +1296,15 @@
       <c r="J22" t="n">
         <v>20</v>
       </c>
-      <c r="K22" t="s"/>
-      <c r="L22" t="s"/>
-      <c r="M22" t="s"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="n">
@@ -1286,8 +1316,12 @@
       <c r="C23" t="n">
         <v>197</v>
       </c>
-      <c r="D23" t="s"/>
-      <c r="E23" t="s"/>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
       <c r="F23" t="n">
         <v>0.8738658428192139</v>
       </c>
@@ -1303,9 +1337,15 @@
       <c r="J23" t="n">
         <v>21</v>
       </c>
-      <c r="K23" t="s"/>
-      <c r="L23" t="s"/>
-      <c r="M23" t="s"/>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="n">
@@ -1317,8 +1357,12 @@
       <c r="C24" t="n">
         <v>180</v>
       </c>
-      <c r="D24" t="s"/>
-      <c r="E24" t="s"/>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
       <c r="F24" t="n">
         <v>0.8876419067382812</v>
       </c>
@@ -1334,9 +1378,15 @@
       <c r="J24" t="n">
         <v>22</v>
       </c>
-      <c r="K24" t="s"/>
-      <c r="L24" t="s"/>
-      <c r="M24" t="s"/>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="n">
@@ -1348,8 +1398,12 @@
       <c r="C25" t="n">
         <v>14</v>
       </c>
-      <c r="D25" t="s"/>
-      <c r="E25" t="s"/>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
       <c r="F25" t="n">
         <v>0.8925089836120605</v>
       </c>
@@ -1365,9 +1419,15 @@
       <c r="J25" t="n">
         <v>23</v>
       </c>
-      <c r="K25" t="s"/>
-      <c r="L25" t="s"/>
-      <c r="M25" t="s"/>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="n">
@@ -1379,8 +1439,12 @@
       <c r="C26" t="n">
         <v>243</v>
       </c>
-      <c r="D26" t="s"/>
-      <c r="E26" t="s"/>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
       <c r="F26" t="n">
         <v>0.884005069732666</v>
       </c>
@@ -1396,9 +1460,15 @@
       <c r="J26" t="n">
         <v>24</v>
       </c>
-      <c r="K26" t="s"/>
-      <c r="L26" t="s"/>
-      <c r="M26" t="s"/>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="n">
@@ -1410,8 +1480,12 @@
       <c r="C27" t="n">
         <v>189</v>
       </c>
-      <c r="D27" t="s"/>
-      <c r="E27" t="s"/>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
       <c r="F27" t="n">
         <v>0.8966829776763916</v>
       </c>
@@ -1427,9 +1501,15 @@
       <c r="J27" t="n">
         <v>25</v>
       </c>
-      <c r="K27" t="s"/>
-      <c r="L27" t="s"/>
-      <c r="M27" t="s"/>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="n">
@@ -1441,8 +1521,12 @@
       <c r="C28" t="n">
         <v>241</v>
       </c>
-      <c r="D28" t="s"/>
-      <c r="E28" t="s"/>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
       <c r="F28" t="n">
         <v>0.9071230888366699</v>
       </c>
@@ -1458,9 +1542,15 @@
       <c r="J28" t="n">
         <v>26</v>
       </c>
-      <c r="K28" t="s"/>
-      <c r="L28" t="s"/>
-      <c r="M28" t="s"/>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="n">
@@ -1472,8 +1562,12 @@
       <c r="C29" t="n">
         <v>8</v>
       </c>
-      <c r="D29" t="s"/>
-      <c r="E29" t="s"/>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
       <c r="F29" t="n">
         <v>0.8885660171508789</v>
       </c>
@@ -1489,9 +1583,15 @@
       <c r="J29" t="n">
         <v>27</v>
       </c>
-      <c r="K29" t="s"/>
-      <c r="L29" t="s"/>
-      <c r="M29" t="s"/>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="n">
@@ -1503,8 +1603,12 @@
       <c r="C30" t="n">
         <v>10</v>
       </c>
-      <c r="D30" t="s"/>
-      <c r="E30" t="s"/>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
       <c r="F30" t="n">
         <v>0.8872480392456055</v>
       </c>
@@ -1520,9 +1624,15 @@
       <c r="J30" t="n">
         <v>28</v>
       </c>
-      <c r="K30" t="s"/>
-      <c r="L30" t="s"/>
-      <c r="M30" t="s"/>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="n">
@@ -1534,8 +1644,12 @@
       <c r="C31" t="n">
         <v>249</v>
       </c>
-      <c r="D31" t="s"/>
-      <c r="E31" t="s"/>
+      <c r="D31" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2</v>
+      </c>
       <c r="F31" t="n">
         <v>0.8925979137420654</v>
       </c>
@@ -1551,9 +1665,15 @@
       <c r="J31" t="n">
         <v>29</v>
       </c>
-      <c r="K31" t="s"/>
-      <c r="L31" t="s"/>
-      <c r="M31" t="s"/>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/data/scheduling_real/schedule/8.xlsx
+++ b/data/scheduling_real/schedule/8.xlsx
@@ -453,7 +453,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -462,16 +462,16 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3930368423461914</v>
+        <v>0.3907439708709717</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06749938584885598</v>
+        <v>0.09538526882586519</v>
       </c>
       <c r="H2" t="n">
-        <v>37.69353916218901</v>
+        <v>26.83035421922074</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -494,34 +494,34 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3943130970001221</v>
+        <v>0.3930368423461914</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06750799606021989</v>
+        <v>0.09608820728392868</v>
       </c>
       <c r="H3" t="n">
-        <v>37.56674624853517</v>
+        <v>26.47869926847004</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
@@ -535,34 +535,34 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3962569236755371</v>
+        <v>0.3943130970001221</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06773633168170824</v>
+        <v>0.09607074550819054</v>
       </c>
       <c r="H4" t="n">
-        <v>37.25644935613095</v>
+        <v>26.39779408732891</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
@@ -576,34 +576,34 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>176</v>
+        <v>228</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3984708786010742</v>
+        <v>0.3962569236755371</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06794734458242477</v>
+        <v>0.09649715195339148</v>
       </c>
       <c r="H5" t="n">
-        <v>36.93438940010161</v>
+        <v>26.15222480440219</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J5" t="n">
         <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
@@ -617,34 +617,34 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3998570442199707</v>
+        <v>0.3984708786010742</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06778957034196974</v>
+        <v>0.09705274371810504</v>
       </c>
       <c r="H6" t="n">
-        <v>36.89201422049793</v>
+        <v>25.85803952950997</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -658,34 +658,34 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>58</v>
+        <v>173</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3907439708709717</v>
+        <v>0.3998570442199707</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07073175712923856</v>
+        <v>0.09721945350246683</v>
       </c>
       <c r="H7" t="n">
-        <v>36.18205815553881</v>
+        <v>25.72421159509948</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J7" t="n">
         <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
@@ -702,31 +702,31 @@
         <v>285</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
         <v>0.4026319980621338</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06870420357854939</v>
+        <v>0.09733470219414091</v>
       </c>
       <c r="H8" t="n">
-        <v>36.15000852959896</v>
+        <v>25.51667071863059</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J8" t="n">
         <v>6</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
@@ -740,34 +740,34 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4023351669311523</v>
+        <v>0.4044609069824219</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06894166494632177</v>
+        <v>0.09768582077796241</v>
       </c>
       <c r="H9" t="n">
-        <v>36.05207268043335</v>
+        <v>25.30998680242402</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J9" t="n">
         <v>7</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
@@ -793,13 +793,13 @@
         <v>0.4040439128875732</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06884012172695546</v>
+        <v>0.09816113211809051</v>
       </c>
       <c r="H10" t="n">
-        <v>35.95255854022701</v>
+        <v>25.21342666797336</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J10" t="n">
         <v>8</v>
@@ -822,34 +822,34 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4044609069824219</v>
+        <v>0.4023351669311523</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06936285623926454</v>
+        <v>0.09889831822162858</v>
       </c>
       <c r="H11" t="n">
-        <v>35.64482445973165</v>
+        <v>25.13177129852662</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J11" t="n">
         <v>9</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
@@ -875,13 +875,13 @@
         <v>0.4121530055999756</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06913249007320736</v>
+        <v>0.09673754439246454</v>
       </c>
       <c r="H12" t="n">
-        <v>35.09613797722159</v>
+        <v>25.08109364937721</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J12" t="n">
         <v>10</v>
@@ -907,31 +907,31 @@
         <v>92</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
         <v>0.5187199115753174</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08920635034259917</v>
+        <v>0.1272049661366161</v>
       </c>
       <c r="H13" t="n">
-        <v>21.61082314342351</v>
+        <v>15.15524683567572</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
         <v>11</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
@@ -948,31 +948,31 @@
         <v>93</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
         <v>0.5223469734191895</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08979120179464799</v>
+        <v>0.1277182004011485</v>
       </c>
       <c r="H14" t="n">
-        <v>21.32097853828598</v>
+        <v>14.98953383603563</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="J14" t="n">
         <v>12</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
@@ -989,31 +989,31 @@
         <v>274</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
         <v>0.5261969566345215</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09041537877480506</v>
+        <v>0.1277101786366444</v>
       </c>
       <c r="H15" t="n">
-        <v>21.01886990002226</v>
+        <v>14.88079574953756</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J15" t="n">
         <v>13</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
@@ -1027,31 +1027,31 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5258448123931885</v>
+        <v>0.5312271118164062</v>
       </c>
       <c r="G16" t="n">
-        <v>0.09105428164574005</v>
+        <v>0.1274837347486362</v>
       </c>
       <c r="H16" t="n">
-        <v>20.88536327683612</v>
+        <v>14.76607229148266</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J16" t="n">
         <v>14</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>1</v>
@@ -1068,34 +1068,34 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5287280082702637</v>
+        <v>0.5258448123931885</v>
       </c>
       <c r="G17" t="n">
-        <v>0.09086086773011889</v>
+        <v>0.1289380554441078</v>
       </c>
       <c r="H17" t="n">
-        <v>20.81568959721128</v>
+        <v>14.74895633823937</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="J17" t="n">
         <v>15</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
@@ -1109,25 +1109,25 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5312271118164062</v>
+        <v>0.5321099758148193</v>
       </c>
       <c r="G18" t="n">
-        <v>0.09059634867330218</v>
+        <v>0.1278350608484093</v>
       </c>
       <c r="H18" t="n">
-        <v>20.7782550936437</v>
+        <v>14.70105886281577</v>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J18" t="n">
         <v>16</v>
@@ -1136,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
@@ -1150,7 +1150,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>277</v>
+        <v>217</v>
       </c>
       <c r="D19" t="n">
         <v>2</v>
@@ -1159,16 +1159,16 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5293171405792236</v>
+        <v>0.5287280082702637</v>
       </c>
       <c r="G19" t="n">
-        <v>0.09106713662231852</v>
+        <v>0.128942227058261</v>
       </c>
       <c r="H19" t="n">
-        <v>20.74542616416748</v>
+        <v>14.66805454158047</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J19" t="n">
         <v>17</v>
@@ -1191,25 +1191,25 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5321099758148193</v>
+        <v>0.5293171405792236</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09146709053658474</v>
+        <v>0.1289542500962049</v>
       </c>
       <c r="H20" t="n">
-        <v>20.54630516002276</v>
+        <v>14.65036287963386</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J20" t="n">
         <v>18</v>
@@ -1232,25 +1232,25 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8738498687744141</v>
+        <v>0.8758289813995361</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1504315202393395</v>
+        <v>0.2121762508175681</v>
       </c>
       <c r="H21" t="n">
-        <v>7.607191168510716</v>
+        <v>5.381259269486385</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J21" t="n">
         <v>19</v>
@@ -1273,25 +1273,25 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>61</v>
+        <v>197</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8758289813995361</v>
+        <v>0.8738658428192139</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1510038482625233</v>
+        <v>0.2132121910111493</v>
       </c>
       <c r="H22" t="n">
-        <v>7.561233899760661</v>
+        <v>5.367143446019583</v>
       </c>
       <c r="I22" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J22" t="n">
         <v>20</v>
@@ -1314,25 +1314,25 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>197</v>
+        <v>65</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8738658428192139</v>
+        <v>0.8738498687744141</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1516173669470589</v>
+        <v>0.2132710210401991</v>
       </c>
       <c r="H23" t="n">
-        <v>7.547554984229093</v>
+        <v>5.365761023925729</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J23" t="n">
         <v>21</v>
@@ -1355,25 +1355,25 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8876419067382812</v>
+        <v>0.8872480392456055</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1520761573638644</v>
+        <v>0.2121756854304155</v>
       </c>
       <c r="H24" t="n">
-        <v>7.408001677746943</v>
+        <v>5.312015552724996</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J24" t="n">
         <v>22</v>
@@ -1396,37 +1396,37 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8925089836120605</v>
+        <v>0.8885660171508789</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1512738271423469</v>
+        <v>0.213830710721332</v>
       </c>
       <c r="H25" t="n">
-        <v>7.406680471350113</v>
+        <v>5.263083021281346</v>
       </c>
       <c r="I25" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J25" t="n">
         <v>23</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1437,7 +1437,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>243</v>
+        <v>180</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -1446,28 +1446,28 @@
         <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>0.884005069732666</v>
+        <v>0.8876419067382812</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1530848705409808</v>
+        <v>0.2151209629250226</v>
       </c>
       <c r="H26" t="n">
-        <v>7.389464601887076</v>
+        <v>5.236962560870784</v>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J26" t="n">
         <v>24</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1478,7 +1478,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -1487,16 +1487,16 @@
         <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8966829776763916</v>
+        <v>0.884005069732666</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1524217386555317</v>
+        <v>0.216564916018283</v>
       </c>
       <c r="H27" t="n">
-        <v>7.31668172039397</v>
+        <v>5.223446404640828</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J27" t="n">
         <v>25</v>
@@ -1519,25 +1519,25 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>241</v>
+        <v>14</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9071230888366699</v>
+        <v>0.8925089836120605</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1521723760559334</v>
+        <v>0.2148245035330476</v>
       </c>
       <c r="H28" t="n">
-        <v>7.244325522895423</v>
+        <v>5.215591717400388</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J28" t="n">
         <v>26</v>
@@ -1560,25 +1560,25 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>8</v>
+        <v>249</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8885660171508789</v>
+        <v>0.8925979137420654</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1557825300648735</v>
+        <v>0.2170272101826789</v>
       </c>
       <c r="H29" t="n">
-        <v>7.224229716626793</v>
+        <v>5.162141975179727</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J29" t="n">
         <v>27</v>
@@ -1601,25 +1601,25 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8872480392456055</v>
+        <v>0.8966829776763916</v>
       </c>
       <c r="G30" t="n">
-        <v>0.158251814823537</v>
+        <v>0.2161380423873783</v>
       </c>
       <c r="H30" t="n">
-        <v>7.122070240857808</v>
+        <v>5.159764272375591</v>
       </c>
       <c r="I30" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J30" t="n">
         <v>28</v>
@@ -1642,25 +1642,25 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8925979137420654</v>
+        <v>0.9071230888366699</v>
       </c>
       <c r="G31" t="n">
-        <v>0.158544243417935</v>
+        <v>0.2163126963256225</v>
       </c>
       <c r="H31" t="n">
-        <v>7.066325760481226</v>
+        <v>5.096262246586678</v>
       </c>
       <c r="I31" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J31" t="n">
         <v>29</v>
